--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="915">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T13:26:27+00:00</t>
+    <t>2025-10-02T13:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -26707,11 +26707,11 @@
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>74</v>
@@ -26729,14 +26729,12 @@
         <v>101</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>72</v>
@@ -27019,7 +27017,7 @@
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>80</v>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T13:32:16+00:00</t>
+    <t>2025-10-02T14:00:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T14:00:56+00:00</t>
+    <t>2025-10-02T14:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T14:19:26+00:00</t>
+    <t>2025-10-02T15:49:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
 </t>
   </si>
   <si>
-    <t>boiteLettreMSS (OffreOperationnelle) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l’organisation interne</t>
+    <t>boiteLettreMSS (OrganisationInterne) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l’organisation interne</t>
   </si>
   <si>
     <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>

--- a/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/ressources-changes-v43/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T15:49:09+00:00</t>
+    <t>2025-10-14T13:00:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
